--- a/data/Cluster Summaries.xlsx
+++ b/data/Cluster Summaries.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8DFB63-E269-41F7-846F-9F04F6429E8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31528C41-C2F2-49B7-8F20-20E7EA72EF6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prevalence" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="2339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4910" uniqueCount="2337">
   <si>
     <t>SAID</t>
   </si>
@@ -6597,12 +6597,6 @@
   </si>
   <si>
     <t>Beijing Hospital</t>
-  </si>
-  <si>
-    <t>China cities Men</t>
-  </si>
-  <si>
-    <t>China cities Women</t>
   </si>
   <si>
     <t>China cities Pooled</t>
@@ -7432,9 +7426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8726,7 +8720,7 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>2191</v>
+        <v>2013</v>
       </c>
       <c r="C29">
         <v>6.1</v>
@@ -8775,7 +8769,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" t="s">
-        <v>2192</v>
+        <v>2012</v>
       </c>
       <c r="C30">
         <v>6.5</v>
@@ -8824,7 +8818,7 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="C31">
         <v>6.2</v>
@@ -9152,11 +9146,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A5D2CA-E622-431F-A138-409C92C8FDD5}">
   <dimension ref="A1:N548"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D459" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D483" sqref="D483"/>
+      <selection pane="bottomRight" activeCell="C489" sqref="C489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9210,10 +9204,10 @@
         <v>162</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -9254,7 +9248,7 @@
         <v>714</v>
       </c>
       <c r="N2" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
@@ -9292,10 +9286,10 @@
         <v>88.3</v>
       </c>
       <c r="M3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N3" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -9333,10 +9327,10 @@
         <v>59.7</v>
       </c>
       <c r="M4" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N4" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
@@ -9374,10 +9368,10 @@
         <v>165</v>
       </c>
       <c r="M5" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N5" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
@@ -9415,10 +9409,10 @@
         <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N6" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
@@ -9456,10 +9450,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N7" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
@@ -9497,10 +9491,10 @@
         <v>174</v>
       </c>
       <c r="M8" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N8" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
@@ -9538,10 +9532,10 @@
         <v>177</v>
       </c>
       <c r="M9" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N9" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -9579,10 +9573,10 @@
         <v>9.9</v>
       </c>
       <c r="M10" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N10" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
@@ -9620,10 +9614,10 @@
         <v>52</v>
       </c>
       <c r="M11" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N11" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
@@ -9652,10 +9646,10 @@
         <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="N12" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -9693,10 +9687,10 @@
         <v>11.3</v>
       </c>
       <c r="M13" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="N13" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
@@ -9734,10 +9728,10 @@
         <v>23.2</v>
       </c>
       <c r="M14" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="N14" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
@@ -9757,7 +9751,7 @@
         <v>714</v>
       </c>
       <c r="N15" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -9774,10 +9768,10 @@
         <v>194</v>
       </c>
       <c r="M16" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N16" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -9794,10 +9788,10 @@
         <v>200</v>
       </c>
       <c r="M17" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N17" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
@@ -9814,10 +9808,10 @@
         <v>201</v>
       </c>
       <c r="M18" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="N18" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
@@ -9834,10 +9828,10 @@
         <v>202</v>
       </c>
       <c r="M19" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="N19" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
@@ -9854,10 +9848,10 @@
         <v>203</v>
       </c>
       <c r="M20" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="N20" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
@@ -9874,10 +9868,10 @@
         <v>204</v>
       </c>
       <c r="M21" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="N21" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
@@ -9894,10 +9888,10 @@
         <v>205</v>
       </c>
       <c r="M22" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="N22" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
@@ -9914,10 +9908,10 @@
         <v>206</v>
       </c>
       <c r="M23" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N23" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
@@ -9934,10 +9928,10 @@
         <v>207</v>
       </c>
       <c r="M24" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N24" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
@@ -9954,10 +9948,10 @@
         <v>197</v>
       </c>
       <c r="M25" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N25" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -9974,10 +9968,10 @@
         <v>208</v>
       </c>
       <c r="M26" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="N26" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
@@ -9994,10 +9988,10 @@
         <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="N27" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
@@ -10014,10 +10008,10 @@
         <v>199</v>
       </c>
       <c r="M28" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N28" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
@@ -10034,10 +10028,10 @@
         <v>210</v>
       </c>
       <c r="M29" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N29" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
@@ -10054,10 +10048,10 @@
         <v>211</v>
       </c>
       <c r="M30" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N30" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
@@ -10074,10 +10068,10 @@
         <v>212</v>
       </c>
       <c r="M31" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N31" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
@@ -10094,10 +10088,10 @@
         <v>213</v>
       </c>
       <c r="M32" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N32" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
@@ -10117,7 +10111,7 @@
         <v>714</v>
       </c>
       <c r="N33" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
@@ -10134,10 +10128,10 @@
         <v>195</v>
       </c>
       <c r="M34" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N34" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
@@ -10154,10 +10148,10 @@
         <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N35" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
@@ -10174,10 +10168,10 @@
         <v>215</v>
       </c>
       <c r="M36" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="N36" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
@@ -10194,10 +10188,10 @@
         <v>216</v>
       </c>
       <c r="M37" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="N37" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
@@ -10214,10 +10208,10 @@
         <v>217</v>
       </c>
       <c r="M38" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="N38" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
@@ -10234,10 +10228,10 @@
         <v>218</v>
       </c>
       <c r="M39" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="N39" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
@@ -10254,10 +10248,10 @@
         <v>219</v>
       </c>
       <c r="M40" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="N40" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -10274,10 +10268,10 @@
         <v>220</v>
       </c>
       <c r="M41" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N41" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
@@ -10294,10 +10288,10 @@
         <v>196</v>
       </c>
       <c r="M42" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N42" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
@@ -10314,10 +10308,10 @@
         <v>198</v>
       </c>
       <c r="M43" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N43" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -10334,10 +10328,10 @@
         <v>199</v>
       </c>
       <c r="M44" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="N44" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
@@ -10354,10 +10348,10 @@
         <v>199</v>
       </c>
       <c r="M45" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="N45" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
@@ -10374,10 +10368,10 @@
         <v>221</v>
       </c>
       <c r="M46" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N46" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -10394,10 +10388,10 @@
         <v>222</v>
       </c>
       <c r="M47" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N47" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
@@ -10414,10 +10408,10 @@
         <v>223</v>
       </c>
       <c r="M48" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N48" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
@@ -10434,10 +10428,10 @@
         <v>224</v>
       </c>
       <c r="M49" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N49" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
@@ -10454,10 +10448,10 @@
         <v>225</v>
       </c>
       <c r="M50" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N50" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
@@ -10489,7 +10483,7 @@
         <v>714</v>
       </c>
       <c r="N51" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
@@ -10518,10 +10512,10 @@
         <v>258</v>
       </c>
       <c r="M52" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N52" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
@@ -10550,10 +10544,10 @@
         <v>263</v>
       </c>
       <c r="M53" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N53" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
@@ -10582,10 +10576,10 @@
         <v>268</v>
       </c>
       <c r="M54" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N54" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
@@ -10614,10 +10608,10 @@
         <v>273</v>
       </c>
       <c r="M55" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N55" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.35">
@@ -10646,10 +10640,10 @@
         <v>278</v>
       </c>
       <c r="M56" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N56" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.35">
@@ -10678,10 +10672,10 @@
         <v>283</v>
       </c>
       <c r="M57" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N57" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
@@ -10710,10 +10704,10 @@
         <v>288</v>
       </c>
       <c r="M58" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="N58" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
@@ -10742,10 +10736,10 @@
         <v>293</v>
       </c>
       <c r="M59" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N59" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
@@ -10774,10 +10768,10 @@
         <v>298</v>
       </c>
       <c r="M60" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="N60" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
@@ -10806,10 +10800,10 @@
         <v>303</v>
       </c>
       <c r="M61" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N61" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
@@ -10838,10 +10832,10 @@
         <v>308</v>
       </c>
       <c r="M62" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N62" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
@@ -10870,10 +10864,10 @@
         <v>313</v>
       </c>
       <c r="M63" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="N63" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
@@ -10902,10 +10896,10 @@
         <v>318</v>
       </c>
       <c r="M64" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="N64" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.35">
@@ -10934,10 +10928,10 @@
         <v>323</v>
       </c>
       <c r="M65" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N65" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.35">
@@ -10966,10 +10960,10 @@
         <v>328</v>
       </c>
       <c r="M66" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N66" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.35">
@@ -10998,10 +10992,10 @@
         <v>333</v>
       </c>
       <c r="M67" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N67" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.35">
@@ -11030,10 +11024,10 @@
         <v>338</v>
       </c>
       <c r="M68" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="N68" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.35">
@@ -11062,7 +11056,7 @@
         <v>714</v>
       </c>
       <c r="N69" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.35">
@@ -11088,10 +11082,10 @@
         <v>347</v>
       </c>
       <c r="M70" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N70" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.35">
@@ -11117,10 +11111,10 @@
         <v>350</v>
       </c>
       <c r="M71" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N71" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
@@ -11146,10 +11140,10 @@
         <v>354</v>
       </c>
       <c r="M72" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N72" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
@@ -11175,10 +11169,10 @@
         <v>358</v>
       </c>
       <c r="M73" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N73" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
@@ -11204,10 +11198,10 @@
         <v>362</v>
       </c>
       <c r="M74" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N74" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.35">
@@ -11233,10 +11227,10 @@
         <v>366</v>
       </c>
       <c r="M75" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N75" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.35">
@@ -11262,10 +11256,10 @@
         <v>370</v>
       </c>
       <c r="M76" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N76" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.35">
@@ -11291,10 +11285,10 @@
         <v>374</v>
       </c>
       <c r="M77" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="N77" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.35">
@@ -11320,10 +11314,10 @@
         <v>376</v>
       </c>
       <c r="M78" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N78" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.35">
@@ -11349,10 +11343,10 @@
         <v>381</v>
       </c>
       <c r="M79" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="N79" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.35">
@@ -11378,10 +11372,10 @@
         <v>339</v>
       </c>
       <c r="M80" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N80" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.35">
@@ -11407,10 +11401,10 @@
         <v>385</v>
       </c>
       <c r="M81" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N81" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.35">
@@ -11436,10 +11430,10 @@
         <v>389</v>
       </c>
       <c r="M82" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="N82" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.35">
@@ -11465,10 +11459,10 @@
         <v>315</v>
       </c>
       <c r="M83" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="N83" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.35">
@@ -11494,10 +11488,10 @@
         <v>396</v>
       </c>
       <c r="M84" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="N84" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.35">
@@ -11523,10 +11517,10 @@
         <v>302</v>
       </c>
       <c r="M85" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N85" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.35">
@@ -11552,10 +11546,10 @@
         <v>400</v>
       </c>
       <c r="M86" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N86" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.35">
@@ -11581,10 +11575,10 @@
         <v>404</v>
       </c>
       <c r="M87" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="N87" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.35">
@@ -11616,7 +11610,7 @@
         <v>714</v>
       </c>
       <c r="N88" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.35">
@@ -11645,10 +11639,10 @@
         <v>505</v>
       </c>
       <c r="M89" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N89" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.35">
@@ -11677,10 +11671,10 @@
         <v>506</v>
       </c>
       <c r="M90" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N90" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.35">
@@ -11709,10 +11703,10 @@
         <v>507</v>
       </c>
       <c r="M91" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N91" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.35">
@@ -11741,10 +11735,10 @@
         <v>508</v>
       </c>
       <c r="M92" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N92" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.35">
@@ -11773,10 +11767,10 @@
         <v>509</v>
       </c>
       <c r="M93" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="N93" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.35">
@@ -11805,10 +11799,10 @@
         <v>510</v>
       </c>
       <c r="M94" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N94" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.35">
@@ -11837,10 +11831,10 @@
         <v>511</v>
       </c>
       <c r="M95" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N95" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.35">
@@ -11869,10 +11863,10 @@
         <v>512</v>
       </c>
       <c r="M96" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N96" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.35">
@@ -11901,10 +11895,10 @@
         <v>513</v>
       </c>
       <c r="M97" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N97" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.35">
@@ -11933,10 +11927,10 @@
         <v>514</v>
       </c>
       <c r="M98" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N98" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.35">
@@ -11965,10 +11959,10 @@
         <v>515</v>
       </c>
       <c r="M99" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="N99" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.35">
@@ -11997,10 +11991,10 @@
         <v>516</v>
       </c>
       <c r="M100" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N100" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.35">
@@ -12029,10 +12023,10 @@
         <v>517</v>
       </c>
       <c r="M101" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="N101" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.35">
@@ -12061,10 +12055,10 @@
         <v>518</v>
       </c>
       <c r="M102" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N102" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.35">
@@ -12093,10 +12087,10 @@
         <v>519</v>
       </c>
       <c r="M103" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N103" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.35">
@@ -12125,10 +12119,10 @@
         <v>520</v>
       </c>
       <c r="M104" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N104" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.35">
@@ -12157,10 +12151,10 @@
         <v>521</v>
       </c>
       <c r="M105" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N105" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.35">
@@ -12189,10 +12183,10 @@
         <v>522</v>
       </c>
       <c r="M106" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="N106" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.35">
@@ -12221,10 +12215,10 @@
         <v>523</v>
       </c>
       <c r="M107" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N107" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.35">
@@ -12253,10 +12247,10 @@
         <v>524</v>
       </c>
       <c r="M108" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N108" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.35">
@@ -12285,10 +12279,10 @@
         <v>525</v>
       </c>
       <c r="M109" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N109" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.35">
@@ -12320,7 +12314,7 @@
         <v>714</v>
       </c>
       <c r="N110" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.35">
@@ -12349,10 +12343,10 @@
         <v>708</v>
       </c>
       <c r="M111" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N111" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.35">
@@ -12381,10 +12375,10 @@
         <v>622</v>
       </c>
       <c r="M112" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N112" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.35">
@@ -12413,10 +12407,10 @@
         <v>627</v>
       </c>
       <c r="M113" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N113" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.35">
@@ -12445,10 +12439,10 @@
         <v>632</v>
       </c>
       <c r="M114" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="N114" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.35">
@@ -12477,10 +12471,10 @@
         <v>637</v>
       </c>
       <c r="M115" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N115" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.35">
@@ -12509,10 +12503,10 @@
         <v>709</v>
       </c>
       <c r="M116" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N116" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.35">
@@ -12541,10 +12535,10 @@
         <v>642</v>
       </c>
       <c r="M117" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N117" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.35">
@@ -12573,10 +12567,10 @@
         <v>647</v>
       </c>
       <c r="M118" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N118" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.35">
@@ -12605,10 +12599,10 @@
         <v>700</v>
       </c>
       <c r="M119" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N119" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.35">
@@ -12637,10 +12631,10 @@
         <v>710</v>
       </c>
       <c r="M120" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="N120" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.35">
@@ -12669,10 +12663,10 @@
         <v>652</v>
       </c>
       <c r="M121" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N121" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.35">
@@ -12701,10 +12695,10 @@
         <v>657</v>
       </c>
       <c r="M122" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="N122" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.35">
@@ -12733,10 +12727,10 @@
         <v>662</v>
       </c>
       <c r="M123" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N123" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.35">
@@ -12765,10 +12759,10 @@
         <v>667</v>
       </c>
       <c r="M124" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N124" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.35">
@@ -12797,10 +12791,10 @@
         <v>672</v>
       </c>
       <c r="M125" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N125" t="s">
         <v>2222</v>
-      </c>
-      <c r="N125" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.35">
@@ -12829,10 +12823,10 @@
         <v>711</v>
       </c>
       <c r="M126" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N126" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.35">
@@ -12861,10 +12855,10 @@
         <v>677</v>
       </c>
       <c r="M127" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="N127" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.35">
@@ -12893,10 +12887,10 @@
         <v>689</v>
       </c>
       <c r="M128" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N128" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.35">
@@ -12925,10 +12919,10 @@
         <v>712</v>
       </c>
       <c r="M129" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N129" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.35">
@@ -12957,10 +12951,10 @@
         <v>713</v>
       </c>
       <c r="M130" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N130" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.35">
@@ -12992,7 +12986,7 @@
         <v>714</v>
       </c>
       <c r="N131" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.35">
@@ -13021,10 +13015,10 @@
         <v>599</v>
       </c>
       <c r="M132" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N132" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.35">
@@ -13053,10 +13047,10 @@
         <v>600</v>
       </c>
       <c r="M133" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N133" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.35">
@@ -13085,10 +13079,10 @@
         <v>601</v>
       </c>
       <c r="M134" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N134" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.35">
@@ -13117,10 +13111,10 @@
         <v>602</v>
       </c>
       <c r="M135" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N135" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.35">
@@ -13149,10 +13143,10 @@
         <v>603</v>
       </c>
       <c r="M136" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="N136" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.35">
@@ -13181,10 +13175,10 @@
         <v>604</v>
       </c>
       <c r="M137" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N137" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.35">
@@ -13213,10 +13207,10 @@
         <v>605</v>
       </c>
       <c r="M138" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N138" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.35">
@@ -13245,10 +13239,10 @@
         <v>606</v>
       </c>
       <c r="M139" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N139" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.35">
@@ -13277,10 +13271,10 @@
         <v>571</v>
       </c>
       <c r="M140" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N140" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.35">
@@ -13309,10 +13303,10 @@
         <v>572</v>
       </c>
       <c r="M141" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N141" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.35">
@@ -13341,10 +13335,10 @@
         <v>607</v>
       </c>
       <c r="M142" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="N142" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.35">
@@ -13373,10 +13367,10 @@
         <v>608</v>
       </c>
       <c r="M143" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N143" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.35">
@@ -13405,10 +13399,10 @@
         <v>609</v>
       </c>
       <c r="M144" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="N144" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.35">
@@ -13437,10 +13431,10 @@
         <v>610</v>
       </c>
       <c r="M145" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N145" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.35">
@@ -13469,10 +13463,10 @@
         <v>611</v>
       </c>
       <c r="M146" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N146" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.35">
@@ -13501,10 +13495,10 @@
         <v>612</v>
       </c>
       <c r="M147" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N147" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.35">
@@ -13533,10 +13527,10 @@
         <v>613</v>
       </c>
       <c r="M148" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N148" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.35">
@@ -13565,10 +13559,10 @@
         <v>614</v>
       </c>
       <c r="M149" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="N149" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.35">
@@ -13582,25 +13576,25 @@
         <v>418</v>
       </c>
       <c r="D150" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="E150" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="F150" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="G150" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="H150" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="M150" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="N150" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.35">
@@ -13614,25 +13608,25 @@
         <v>419</v>
       </c>
       <c r="D151" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="E151" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F151" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="G151" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="H151" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="M151" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="N151" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.35">
@@ -13646,25 +13640,25 @@
         <v>420</v>
       </c>
       <c r="D152" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="E152" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F152" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="G152" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="H152" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="M152" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="N152" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.35">
@@ -13693,7 +13687,7 @@
         <v>714</v>
       </c>
       <c r="N153" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.35">
@@ -13719,10 +13713,10 @@
         <v>12.1</v>
       </c>
       <c r="M154" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N154" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.35">
@@ -13748,10 +13742,10 @@
         <v>73.7</v>
       </c>
       <c r="M155" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N155" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.35">
@@ -13777,10 +13771,10 @@
         <v>762</v>
       </c>
       <c r="M156" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N156" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.35">
@@ -13806,10 +13800,10 @@
         <v>763</v>
       </c>
       <c r="M157" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N157" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.35">
@@ -13835,10 +13829,10 @@
         <v>764</v>
       </c>
       <c r="M158" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N158" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.35">
@@ -13864,10 +13858,10 @@
         <v>765</v>
       </c>
       <c r="M159" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N159" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.35">
@@ -13893,10 +13887,10 @@
         <v>76</v>
       </c>
       <c r="M160" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N160" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.35">
@@ -13922,10 +13916,10 @@
         <v>766</v>
       </c>
       <c r="M161" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N161" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.35">
@@ -13951,10 +13945,10 @@
         <v>767</v>
       </c>
       <c r="M162" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N162" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.35">
@@ -13980,10 +13974,10 @@
         <v>768</v>
       </c>
       <c r="M163" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N163" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.35">
@@ -14009,10 +14003,10 @@
         <v>769</v>
       </c>
       <c r="M164" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N164" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.35">
@@ -14038,10 +14032,10 @@
         <v>770</v>
       </c>
       <c r="M165" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N165" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.35">
@@ -14067,10 +14061,10 @@
         <v>771</v>
       </c>
       <c r="M166" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N166" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.35">
@@ -14096,10 +14090,10 @@
         <v>772</v>
       </c>
       <c r="M167" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="N167" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.35">
@@ -14125,10 +14119,10 @@
         <v>773</v>
       </c>
       <c r="M168" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N168" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.35">
@@ -14154,10 +14148,10 @@
         <v>774</v>
       </c>
       <c r="M169" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N169" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.35">
@@ -14183,10 +14177,10 @@
         <v>775</v>
       </c>
       <c r="M170" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N170" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.35">
@@ -14212,10 +14206,10 @@
         <v>776</v>
       </c>
       <c r="M171" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N171" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.35">
@@ -14241,10 +14235,10 @@
         <v>15</v>
       </c>
       <c r="M172" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N172" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.35">
@@ -14270,10 +14264,10 @@
         <v>50.9</v>
       </c>
       <c r="M173" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N173" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.35">
@@ -14299,10 +14293,10 @@
         <v>38</v>
       </c>
       <c r="M174" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N174" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.35">
@@ -14328,10 +14322,10 @@
         <v>37.299999999999997</v>
       </c>
       <c r="M175" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="N175" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.35">
@@ -14357,10 +14351,10 @@
         <v>2.9</v>
       </c>
       <c r="M176" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="N176" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.35">
@@ -14389,7 +14383,7 @@
         <v>714</v>
       </c>
       <c r="N177" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.35">
@@ -14415,10 +14409,10 @@
         <v>12.3</v>
       </c>
       <c r="M178" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N178" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.35">
@@ -14444,10 +14438,10 @@
         <v>815</v>
       </c>
       <c r="M179" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N179" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.35">
@@ -14473,10 +14467,10 @@
         <v>816</v>
       </c>
       <c r="M180" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N180" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.35">
@@ -14502,10 +14496,10 @@
         <v>817</v>
       </c>
       <c r="M181" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N181" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.35">
@@ -14531,10 +14525,10 @@
         <v>818</v>
       </c>
       <c r="M182" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N182" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.35">
@@ -14560,10 +14554,10 @@
         <v>77</v>
       </c>
       <c r="M183" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N183" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.35">
@@ -14589,10 +14583,10 @@
         <v>819</v>
       </c>
       <c r="M184" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N184" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.35">
@@ -14618,10 +14612,10 @@
         <v>820</v>
       </c>
       <c r="M185" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N185" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.35">
@@ -14647,10 +14641,10 @@
         <v>768</v>
       </c>
       <c r="M186" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N186" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.35">
@@ -14676,10 +14670,10 @@
         <v>821</v>
       </c>
       <c r="M187" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N187" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.35">
@@ -14705,10 +14699,10 @@
         <v>822</v>
       </c>
       <c r="M188" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N188" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.35">
@@ -14734,10 +14728,10 @@
         <v>823</v>
       </c>
       <c r="M189" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N189" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.35">
@@ -14763,10 +14757,10 @@
         <v>824</v>
       </c>
       <c r="M190" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N190" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.35">
@@ -14792,10 +14786,10 @@
         <v>16</v>
       </c>
       <c r="M191" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N191" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.35">
@@ -14821,10 +14815,10 @@
         <v>58.3</v>
       </c>
       <c r="M192" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N192" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.35">
@@ -14850,10 +14844,10 @@
         <v>42.9</v>
       </c>
       <c r="M193" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N193" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.35">
@@ -14882,7 +14876,7 @@
         <v>714</v>
       </c>
       <c r="N194" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.35">
@@ -14908,10 +14902,10 @@
         <v>12.6</v>
       </c>
       <c r="M195" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N195" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.35">
@@ -14937,10 +14931,10 @@
         <v>854</v>
       </c>
       <c r="M196" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N196" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.35">
@@ -14966,10 +14960,10 @@
         <v>855</v>
       </c>
       <c r="M197" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N197" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.35">
@@ -14995,10 +14989,10 @@
         <v>856</v>
       </c>
       <c r="M198" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N198" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.35">
@@ -15024,10 +15018,10 @@
         <v>857</v>
       </c>
       <c r="M199" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N199" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.35">
@@ -15053,10 +15047,10 @@
         <v>77</v>
       </c>
       <c r="M200" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N200" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.35">
@@ -15082,10 +15076,10 @@
         <v>858</v>
       </c>
       <c r="M201" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N201" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.35">
@@ -15111,10 +15105,10 @@
         <v>859</v>
       </c>
       <c r="M202" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N202" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.35">
@@ -15140,10 +15134,10 @@
         <v>860</v>
       </c>
       <c r="M203" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N203" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.35">
@@ -15169,10 +15163,10 @@
         <v>861</v>
       </c>
       <c r="M204" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N204" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.35">
@@ -15198,10 +15192,10 @@
         <v>862</v>
       </c>
       <c r="M205" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N205" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.35">
@@ -15227,10 +15221,10 @@
         <v>863</v>
       </c>
       <c r="M206" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N206" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.35">
@@ -15256,10 +15250,10 @@
         <v>864</v>
       </c>
       <c r="M207" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N207" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.35">
@@ -15285,10 +15279,10 @@
         <v>12.6</v>
       </c>
       <c r="M208" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N208" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.35">
@@ -15314,10 +15308,10 @@
         <v>35.4</v>
       </c>
       <c r="M209" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N209" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.35">
@@ -15343,10 +15337,10 @@
         <v>27.6</v>
       </c>
       <c r="M210" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N210" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.35">
@@ -15375,7 +15369,7 @@
         <v>714</v>
       </c>
       <c r="N211" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.35">
@@ -15401,10 +15395,10 @@
         <v>19.600000000000001</v>
       </c>
       <c r="M212" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N212" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.35">
@@ -15430,10 +15424,10 @@
         <v>57.2</v>
       </c>
       <c r="M213" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N213" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.35">
@@ -15459,10 +15453,10 @@
         <v>904</v>
       </c>
       <c r="M214" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N214" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.35">
@@ -15488,10 +15482,10 @@
         <v>905</v>
       </c>
       <c r="M215" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N215" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.35">
@@ -15517,10 +15511,10 @@
         <v>906</v>
       </c>
       <c r="M216" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N216" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.35">
@@ -15546,10 +15540,10 @@
         <v>52</v>
       </c>
       <c r="M217" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N217" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.35">
@@ -15575,10 +15569,10 @@
         <v>907</v>
       </c>
       <c r="M218" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N218" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.35">
@@ -15604,10 +15598,10 @@
         <v>908</v>
       </c>
       <c r="M219" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N219" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.35">
@@ -15633,10 +15627,10 @@
         <v>909</v>
       </c>
       <c r="M220" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N220" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.35">
@@ -15662,10 +15656,10 @@
         <v>910</v>
       </c>
       <c r="M221" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N221" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.35">
@@ -15691,10 +15685,10 @@
         <v>911</v>
       </c>
       <c r="M222" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N222" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.35">
@@ -15720,10 +15714,10 @@
         <v>912</v>
       </c>
       <c r="M223" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N223" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.35">
@@ -15749,10 +15743,10 @@
         <v>913</v>
       </c>
       <c r="M224" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="N224" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.35">
@@ -15778,10 +15772,10 @@
         <v>914</v>
       </c>
       <c r="M225" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N225" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.35">
@@ -15810,7 +15804,7 @@
         <v>714</v>
       </c>
       <c r="N226" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.35">
@@ -15836,10 +15830,10 @@
         <v>7.6</v>
       </c>
       <c r="M227" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N227" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.35">
@@ -15865,10 +15859,10 @@
         <v>63.5</v>
       </c>
       <c r="M228" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N228" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.35">
@@ -15894,10 +15888,10 @@
         <v>933</v>
       </c>
       <c r="M229" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N229" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.35">
@@ -15923,10 +15917,10 @@
         <v>934</v>
       </c>
       <c r="M230" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N230" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.35">
@@ -15952,10 +15946,10 @@
         <v>935</v>
       </c>
       <c r="M231" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N231" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.35">
@@ -15981,10 +15975,10 @@
         <v>936</v>
       </c>
       <c r="M232" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N232" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.35">
@@ -16010,10 +16004,10 @@
         <v>75</v>
       </c>
       <c r="M233" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N233" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.35">
@@ -16039,10 +16033,10 @@
         <v>937</v>
       </c>
       <c r="M234" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N234" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.35">
@@ -16068,10 +16062,10 @@
         <v>938</v>
       </c>
       <c r="M235" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N235" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.35">
@@ -16097,10 +16091,10 @@
         <v>939</v>
       </c>
       <c r="M236" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N236" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.35">
@@ -16126,10 +16120,10 @@
         <v>940</v>
       </c>
       <c r="M237" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N237" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.35">
@@ -16155,10 +16149,10 @@
         <v>941</v>
       </c>
       <c r="M238" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N238" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.35">
@@ -16187,7 +16181,7 @@
         <v>714</v>
       </c>
       <c r="N239" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.35">
@@ -16213,10 +16207,10 @@
         <v>12</v>
       </c>
       <c r="M240" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="N240" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.35">
@@ -16242,10 +16236,10 @@
         <v>76</v>
       </c>
       <c r="M241" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N241" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.35">
@@ -16271,10 +16265,10 @@
         <v>984</v>
       </c>
       <c r="M242" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N242" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.35">
@@ -16300,10 +16294,10 @@
         <v>985</v>
       </c>
       <c r="M243" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N243" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.35">
@@ -16329,10 +16323,10 @@
         <v>986</v>
       </c>
       <c r="M244" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="N244" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.35">
@@ -16358,10 +16352,10 @@
         <v>987</v>
       </c>
       <c r="M245" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N245" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.35">
@@ -16387,10 +16381,10 @@
         <v>988</v>
       </c>
       <c r="M246" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N246" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.35">
@@ -16416,10 +16410,10 @@
         <v>989</v>
       </c>
       <c r="M247" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N247" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.35">
@@ -16445,10 +16439,10 @@
         <v>990</v>
       </c>
       <c r="M248" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N248" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.35">
@@ -16474,10 +16468,10 @@
         <v>991</v>
       </c>
       <c r="M249" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N249" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.35">
@@ -16506,10 +16500,10 @@
         <v>1006</v>
       </c>
       <c r="M250" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N250" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.35">
@@ -16538,10 +16532,10 @@
         <v>1007</v>
       </c>
       <c r="M251" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="N251" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.35">
@@ -16570,10 +16564,10 @@
         <v>1008</v>
       </c>
       <c r="M252" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N252" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.35">
@@ -16602,10 +16596,10 @@
         <v>1009</v>
       </c>
       <c r="M253" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N253" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.35">
@@ -16634,10 +16628,10 @@
         <v>1010</v>
       </c>
       <c r="M254" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="N254" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.35">
@@ -16666,10 +16660,10 @@
         <v>1011</v>
       </c>
       <c r="M255" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="N255" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.35">
@@ -16698,10 +16692,10 @@
         <v>1012</v>
       </c>
       <c r="M256" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="N256" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.35">
@@ -16730,10 +16724,10 @@
         <v>1013</v>
       </c>
       <c r="M257" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="N257" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.35">
@@ -16762,10 +16756,10 @@
         <v>1014</v>
       </c>
       <c r="M258" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="N258" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.35">
@@ -16794,10 +16788,10 @@
         <v>1015</v>
       </c>
       <c r="M259" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="N259" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.35">
@@ -16826,10 +16820,10 @@
         <v>1016</v>
       </c>
       <c r="M260" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="N260" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.35">
@@ -16858,10 +16852,10 @@
         <v>1017</v>
       </c>
       <c r="M261" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="N261" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.35">
@@ -16890,10 +16884,10 @@
         <v>1018</v>
       </c>
       <c r="M262" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="N262" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.35">
@@ -16922,10 +16916,10 @@
         <v>1019</v>
       </c>
       <c r="M263" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="N263" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.35">
@@ -16954,10 +16948,10 @@
         <v>1020</v>
       </c>
       <c r="M264" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="N264" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.35">
@@ -16986,10 +16980,10 @@
         <v>1021</v>
       </c>
       <c r="M265" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="N265" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.35">
@@ -17021,7 +17015,7 @@
         <v>714</v>
       </c>
       <c r="N266" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.35">
@@ -17050,10 +17044,10 @@
         <v>60.3</v>
       </c>
       <c r="M267" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N267" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.35">
@@ -17082,10 +17076,10 @@
         <v>1174</v>
       </c>
       <c r="M268" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="N268" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.35">
@@ -17114,10 +17108,10 @@
         <v>1175</v>
       </c>
       <c r="M269" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N269" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.35">
@@ -17146,10 +17140,10 @@
         <v>1126</v>
       </c>
       <c r="M270" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N270" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.35">
@@ -17178,10 +17172,10 @@
         <v>1176</v>
       </c>
       <c r="M271" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N271" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.35">
@@ -17210,10 +17204,10 @@
         <v>1177</v>
       </c>
       <c r="M272" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N272" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.35">
@@ -17242,10 +17236,10 @@
         <v>1178</v>
       </c>
       <c r="M273" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N273" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.35">
@@ -17274,10 +17268,10 @@
         <v>15.1</v>
       </c>
       <c r="M274" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N274" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.35">
@@ -17306,10 +17300,10 @@
         <v>36.1</v>
       </c>
       <c r="M275" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="N275" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.35">
@@ -17338,10 +17332,10 @@
         <v>1179</v>
       </c>
       <c r="M276" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="N276" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.35">
@@ -17370,10 +17364,10 @@
         <v>1180</v>
       </c>
       <c r="M277" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N277" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.35">
@@ -17402,10 +17396,10 @@
         <v>1181</v>
       </c>
       <c r="M278" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N278" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.35">
@@ -17434,10 +17428,10 @@
         <v>1182</v>
       </c>
       <c r="M279" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="N279" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.35">
@@ -17466,10 +17460,10 @@
         <v>1183</v>
       </c>
       <c r="M280" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="N280" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.35">
@@ -17498,10 +17492,10 @@
         <v>1184</v>
       </c>
       <c r="M281" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N281" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.35">
@@ -17530,10 +17524,10 @@
         <v>1185</v>
       </c>
       <c r="M282" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N282" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.35">
@@ -17562,10 +17556,10 @@
         <v>1186</v>
       </c>
       <c r="M283" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N283" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.35">
@@ -17594,10 +17588,10 @@
         <v>1187</v>
       </c>
       <c r="M284" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N284" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.35">
@@ -17626,10 +17620,10 @@
         <v>1188</v>
       </c>
       <c r="M285" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N285" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.35">
@@ -17658,10 +17652,10 @@
         <v>77.2</v>
       </c>
       <c r="M286" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="N286" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.35">
@@ -17690,10 +17684,10 @@
         <v>82.7</v>
       </c>
       <c r="M287" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="N287" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.35">
@@ -17722,10 +17716,10 @@
         <v>20.6</v>
       </c>
       <c r="M288" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="N288" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.35">
@@ -17754,10 +17748,10 @@
         <v>16.8</v>
       </c>
       <c r="M289" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="N289" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.35">
@@ -17786,10 +17780,10 @@
         <v>44.2</v>
       </c>
       <c r="M290" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="N290" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.35">
@@ -17818,10 +17812,10 @@
         <v>16.899999999999999</v>
       </c>
       <c r="M291" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N291" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.35">
@@ -17850,10 +17844,10 @@
         <v>12.1</v>
       </c>
       <c r="M292" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="N292" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.35">
@@ -17882,10 +17876,10 @@
         <v>10.7</v>
       </c>
       <c r="M293" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="N293" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.35">
@@ -17914,10 +17908,10 @@
         <v>6</v>
       </c>
       <c r="M294" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="N294" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.35">
@@ -17946,10 +17940,10 @@
         <v>3.4</v>
       </c>
       <c r="M295" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="N295" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.35">
@@ -17978,10 +17972,10 @@
         <v>25.2</v>
       </c>
       <c r="M296" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N296" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.35">
@@ -18010,10 +18004,10 @@
         <v>21.6</v>
       </c>
       <c r="M297" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N297" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.35">
@@ -18045,7 +18039,7 @@
         <v>714</v>
       </c>
       <c r="N298" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.35">
@@ -18074,10 +18068,10 @@
         <v>1206</v>
       </c>
       <c r="M299" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N299" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.35">
@@ -18106,10 +18100,10 @@
         <v>1207</v>
       </c>
       <c r="M300" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N300" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.35">
@@ -18138,10 +18132,10 @@
         <v>1208</v>
       </c>
       <c r="M301" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N301" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.35">
@@ -18170,10 +18164,10 @@
         <v>1209</v>
       </c>
       <c r="M302" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N302" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.35">
@@ -18202,10 +18196,10 @@
         <v>1210</v>
       </c>
       <c r="M303" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="N303" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.35">
@@ -18234,10 +18228,10 @@
         <v>1211</v>
       </c>
       <c r="M304" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N304" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.35">
@@ -18266,10 +18260,10 @@
         <v>1212</v>
       </c>
       <c r="M305" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N305" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.35">
@@ -18298,10 +18292,10 @@
         <v>1213</v>
       </c>
       <c r="M306" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N306" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.35">
@@ -18330,10 +18324,10 @@
         <v>1214</v>
       </c>
       <c r="M307" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N307" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.35">
@@ -18362,10 +18356,10 @@
         <v>1215</v>
       </c>
       <c r="M308" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="N308" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.35">
@@ -18394,10 +18388,10 @@
         <v>1216</v>
       </c>
       <c r="M309" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="N309" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.35">
@@ -18426,10 +18420,10 @@
         <v>1217</v>
       </c>
       <c r="M310" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="N310" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.35">
@@ -18458,10 +18452,10 @@
         <v>1218</v>
       </c>
       <c r="M311" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N311" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.35">
@@ -18490,10 +18484,10 @@
         <v>1219</v>
       </c>
       <c r="M312" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N312" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.35">
@@ -18522,10 +18516,10 @@
         <v>1220</v>
       </c>
       <c r="M313" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N313" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.35">
@@ -18554,10 +18548,10 @@
         <v>1221</v>
       </c>
       <c r="M314" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N314" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.35">
@@ -18586,10 +18580,10 @@
         <v>1222</v>
       </c>
       <c r="M315" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N315" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.35">
@@ -18618,10 +18612,10 @@
         <v>1223</v>
       </c>
       <c r="M316" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N316" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.35">
@@ -18647,10 +18641,10 @@
         <v>1275</v>
       </c>
       <c r="M317" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N317" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.35">
@@ -18676,10 +18670,10 @@
         <v>1276</v>
       </c>
       <c r="M318" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N318" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.35">
@@ -18705,10 +18699,10 @@
         <v>1316</v>
       </c>
       <c r="M319" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N319" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.35">
@@ -18734,10 +18728,10 @@
         <v>1317</v>
       </c>
       <c r="M320" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="N320" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.35">
@@ -18763,10 +18757,10 @@
         <v>1268</v>
       </c>
       <c r="M321" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N321" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.35">
@@ -18792,10 +18786,10 @@
         <v>1277</v>
       </c>
       <c r="M322" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N322" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.35">
@@ -18821,10 +18815,10 @@
         <v>1318</v>
       </c>
       <c r="M323" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N323" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.35">
@@ -18850,10 +18844,10 @@
         <v>1319</v>
       </c>
       <c r="M324" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N324" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.35">
@@ -18879,10 +18873,10 @@
         <v>1320</v>
       </c>
       <c r="M325" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N325" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.35">
@@ -18908,10 +18902,10 @@
         <v>1321</v>
       </c>
       <c r="M326" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="N326" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.35">
@@ -18937,10 +18931,10 @@
         <v>1351</v>
       </c>
       <c r="M327" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N327" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.35">
@@ -18966,10 +18960,10 @@
         <v>1352</v>
       </c>
       <c r="M328" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N328" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.35">
@@ -18995,10 +18989,10 @@
         <v>1353</v>
       </c>
       <c r="M329" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N329" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.35">
@@ -19024,10 +19018,10 @@
         <v>1354</v>
       </c>
       <c r="M330" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="N330" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.35">
@@ -19053,10 +19047,10 @@
         <v>1355</v>
       </c>
       <c r="M331" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N331" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.35">
@@ -19082,10 +19076,10 @@
         <v>1356</v>
       </c>
       <c r="M332" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N332" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.35">
@@ -19111,10 +19105,10 @@
         <v>1357</v>
       </c>
       <c r="M333" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N333" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.35">
@@ -19140,10 +19134,10 @@
         <v>1358</v>
       </c>
       <c r="M334" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N334" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.35">
@@ -19169,10 +19163,10 @@
         <v>1359</v>
       </c>
       <c r="M335" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N335" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.35">
@@ -19198,10 +19192,10 @@
         <v>1360</v>
       </c>
       <c r="M336" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="N336" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.35">
@@ -19227,10 +19221,10 @@
         <v>1460</v>
       </c>
       <c r="M337" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N337" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.35">
@@ -19256,10 +19250,10 @@
         <v>1461</v>
       </c>
       <c r="M338" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N338" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.35">
@@ -19285,10 +19279,10 @@
         <v>1462</v>
       </c>
       <c r="M339" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="N339" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.35">
@@ -19314,10 +19308,10 @@
         <v>1463</v>
       </c>
       <c r="M340" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="N340" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.35">
@@ -19343,10 +19337,10 @@
         <v>1464</v>
       </c>
       <c r="M341" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="N341" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.35">
@@ -19372,10 +19366,10 @@
         <v>1465</v>
       </c>
       <c r="M342" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N342" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.35">
@@ -19401,10 +19395,10 @@
         <v>1466</v>
       </c>
       <c r="M343" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N343" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.35">
@@ -19430,10 +19424,10 @@
         <v>1467</v>
       </c>
       <c r="M344" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N344" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.35">
@@ -19459,10 +19453,10 @@
         <v>1468</v>
       </c>
       <c r="M345" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="N345" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.35">
@@ -19488,10 +19482,10 @@
         <v>1469</v>
       </c>
       <c r="M346" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N346" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.35">
@@ -19517,10 +19511,10 @@
         <v>1470</v>
       </c>
       <c r="M347" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="N347" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.35">
@@ -19546,10 +19540,10 @@
         <v>1471</v>
       </c>
       <c r="M348" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N348" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.35">
@@ -19575,10 +19569,10 @@
         <v>1472</v>
       </c>
       <c r="M349" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N349" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.35">
@@ -19604,10 +19598,10 @@
         <v>1473</v>
       </c>
       <c r="M350" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="N350" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.35">
@@ -19633,10 +19627,10 @@
         <v>1474</v>
       </c>
       <c r="M351" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="N351" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.35">
@@ -19662,10 +19656,10 @@
         <v>1475</v>
       </c>
       <c r="M352" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="N352" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.35">
@@ -19691,10 +19685,10 @@
         <v>1476</v>
       </c>
       <c r="M353" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N353" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.35">
@@ -19720,10 +19714,10 @@
         <v>1477</v>
       </c>
       <c r="M354" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N354" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.35">
@@ -19749,10 +19743,10 @@
         <v>1478</v>
       </c>
       <c r="M355" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N355" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.35">
@@ -19778,10 +19772,10 @@
         <v>1479</v>
       </c>
       <c r="M356" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N356" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.35">
@@ -19807,10 +19801,10 @@
         <v>1480</v>
       </c>
       <c r="M357" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="N357" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.35">
@@ -19836,10 +19830,10 @@
         <v>1481</v>
       </c>
       <c r="M358" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="N358" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.35">
@@ -19865,10 +19859,10 @@
         <v>1661</v>
       </c>
       <c r="M359" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="N359" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.35">
@@ -19894,10 +19888,10 @@
         <v>1662</v>
       </c>
       <c r="M360" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="N360" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.35">
@@ -19923,10 +19917,10 @@
         <v>1548</v>
       </c>
       <c r="M361" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N361" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.35">
@@ -19952,10 +19946,10 @@
         <v>1549</v>
       </c>
       <c r="M362" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N362" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.35">
@@ -19981,10 +19975,10 @@
         <v>1550</v>
       </c>
       <c r="M363" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="N363" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.35">
@@ -20010,10 +20004,10 @@
         <v>1551</v>
       </c>
       <c r="M364" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="N364" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.35">
@@ -20039,10 +20033,10 @@
         <v>1552</v>
       </c>
       <c r="M365" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="N365" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.35">
@@ -20068,10 +20062,10 @@
         <v>1553</v>
       </c>
       <c r="M366" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N366" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.35">
@@ -20097,10 +20091,10 @@
         <v>1554</v>
       </c>
       <c r="M367" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N367" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.35">
@@ -20126,10 +20120,10 @@
         <v>1555</v>
       </c>
       <c r="M368" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N368" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.35">
@@ -20155,10 +20149,10 @@
         <v>1556</v>
       </c>
       <c r="M369" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="N369" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.35">
@@ -20184,10 +20178,10 @@
         <v>1557</v>
       </c>
       <c r="M370" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N370" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.35">
@@ -20213,10 +20207,10 @@
         <v>1558</v>
       </c>
       <c r="M371" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="N371" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.35">
@@ -20242,10 +20236,10 @@
         <v>1559</v>
       </c>
       <c r="M372" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N372" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.35">
@@ -20271,10 +20265,10 @@
         <v>1560</v>
       </c>
       <c r="M373" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N373" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.35">
@@ -20300,10 +20294,10 @@
         <v>1561</v>
       </c>
       <c r="M374" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="N374" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.35">
@@ -20329,10 +20323,10 @@
         <v>1562</v>
       </c>
       <c r="M375" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="N375" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.35">
@@ -20358,10 +20352,10 @@
         <v>1563</v>
       </c>
       <c r="M376" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="N376" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.35">
@@ -20387,10 +20381,10 @@
         <v>1564</v>
       </c>
       <c r="M377" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N377" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.35">
@@ -20416,10 +20410,10 @@
         <v>1565</v>
       </c>
       <c r="M378" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N378" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.35">
@@ -20445,10 +20439,10 @@
         <v>1566</v>
       </c>
       <c r="M379" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N379" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.35">
@@ -20474,10 +20468,10 @@
         <v>1567</v>
       </c>
       <c r="M380" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N380" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.35">
@@ -20503,10 +20497,10 @@
         <v>1568</v>
       </c>
       <c r="M381" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="N381" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.35">
@@ -20532,10 +20526,10 @@
         <v>1569</v>
       </c>
       <c r="M382" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="N382" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.35">
@@ -20561,10 +20555,10 @@
         <v>1669</v>
       </c>
       <c r="M383" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="N383" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.35">
@@ -20590,10 +20584,10 @@
         <v>1670</v>
       </c>
       <c r="M384" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="N384" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.35">
@@ -20619,10 +20613,10 @@
         <v>1634</v>
       </c>
       <c r="M385" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N385" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.35">
@@ -20648,10 +20642,10 @@
         <v>1635</v>
       </c>
       <c r="M386" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N386" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.35">
@@ -20677,10 +20671,10 @@
         <v>1636</v>
       </c>
       <c r="M387" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="N387" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.35">
@@ -20706,10 +20700,10 @@
         <v>1637</v>
       </c>
       <c r="M388" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="N388" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.35">
@@ -20735,10 +20729,10 @@
         <v>1638</v>
       </c>
       <c r="M389" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="N389" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.35">
@@ -20764,10 +20758,10 @@
         <v>1639</v>
       </c>
       <c r="M390" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N390" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.35">
@@ -20793,10 +20787,10 @@
         <v>1640</v>
       </c>
       <c r="M391" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N391" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.35">
@@ -20822,10 +20816,10 @@
         <v>1641</v>
       </c>
       <c r="M392" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N392" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.35">
@@ -20851,10 +20845,10 @@
         <v>1642</v>
       </c>
       <c r="M393" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="N393" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.35">
@@ -20880,10 +20874,10 @@
         <v>1643</v>
       </c>
       <c r="M394" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N394" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.35">
@@ -20909,10 +20903,10 @@
         <v>1644</v>
       </c>
       <c r="M395" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="N395" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.35">
@@ -20938,10 +20932,10 @@
         <v>1645</v>
       </c>
       <c r="M396" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N396" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.35">
@@ -20967,10 +20961,10 @@
         <v>1646</v>
       </c>
       <c r="M397" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N397" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.35">
@@ -20996,10 +20990,10 @@
         <v>1647</v>
       </c>
       <c r="M398" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="N398" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.35">
@@ -21025,10 +21019,10 @@
         <v>1648</v>
       </c>
       <c r="M399" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="N399" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.35">
@@ -21054,10 +21048,10 @@
         <v>1649</v>
       </c>
       <c r="M400" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="N400" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.35">
@@ -21083,10 +21077,10 @@
         <v>1650</v>
       </c>
       <c r="M401" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N401" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.35">
@@ -21112,10 +21106,10 @@
         <v>1651</v>
       </c>
       <c r="M402" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N402" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.35">
@@ -21141,10 +21135,10 @@
         <v>1652</v>
       </c>
       <c r="M403" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="N403" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.35">
@@ -21170,10 +21164,10 @@
         <v>1653</v>
       </c>
       <c r="M404" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N404" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.35">
@@ -21199,10 +21193,10 @@
         <v>1654</v>
       </c>
       <c r="M405" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="N405" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.35">
@@ -21228,10 +21222,10 @@
         <v>1591</v>
       </c>
       <c r="M406" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="N406" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.35">
@@ -21257,10 +21251,10 @@
         <v>1677</v>
       </c>
       <c r="M407" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="N407" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.35">
@@ -21286,10 +21280,10 @@
         <v>1678</v>
       </c>
       <c r="M408" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="N408" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.35">
@@ -21306,10 +21300,10 @@
         <v>1692</v>
       </c>
       <c r="M409" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N409" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.35">
@@ -21326,10 +21320,10 @@
         <v>1693</v>
       </c>
       <c r="M410" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N410" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.35">
@@ -21346,10 +21340,10 @@
         <v>1694</v>
       </c>
       <c r="M411" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N411" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.35">
@@ -21366,10 +21360,10 @@
         <v>1695</v>
       </c>
       <c r="M412" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N412" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.35">
@@ -21386,10 +21380,10 @@
         <v>1696</v>
       </c>
       <c r="M413" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="N413" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.35">
@@ -21421,7 +21415,7 @@
         <v>714</v>
       </c>
       <c r="N414" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="415" spans="1:14" x14ac:dyDescent="0.35">
@@ -21450,10 +21444,10 @@
         <v>1707</v>
       </c>
       <c r="M415" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N415" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.35">
@@ -21482,10 +21476,10 @@
         <v>1708</v>
       </c>
       <c r="M416" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N416" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.35">
@@ -21514,10 +21508,10 @@
         <v>1709</v>
       </c>
       <c r="M417" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="N417" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.35">
@@ -21546,10 +21540,10 @@
         <v>1710</v>
       </c>
       <c r="M418" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N418" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.35">
@@ -21578,10 +21572,10 @@
         <v>1711</v>
       </c>
       <c r="M419" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N419" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.35">
@@ -21610,10 +21604,10 @@
         <v>1712</v>
       </c>
       <c r="M420" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="N420" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.35">
@@ -21642,10 +21636,10 @@
         <v>1713</v>
       </c>
       <c r="M421" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N421" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.35">
@@ -21674,10 +21668,10 @@
         <v>1714</v>
       </c>
       <c r="M422" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N422" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.35">
@@ -21706,10 +21700,10 @@
         <v>1715</v>
       </c>
       <c r="M423" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N423" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.35">
@@ -21738,10 +21732,10 @@
         <v>1716</v>
       </c>
       <c r="M424" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N424" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.35">
@@ -21770,10 +21764,10 @@
         <v>1717</v>
       </c>
       <c r="M425" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="N425" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.35">
@@ -21802,10 +21796,10 @@
         <v>1718</v>
       </c>
       <c r="M426" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="N426" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.35">
@@ -21834,10 +21828,10 @@
         <v>1719</v>
       </c>
       <c r="M427" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N427" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.35">
@@ -21866,10 +21860,10 @@
         <v>1720</v>
       </c>
       <c r="M428" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N428" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.35">
@@ -21898,10 +21892,10 @@
         <v>1721</v>
       </c>
       <c r="M429" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N429" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.35">
@@ -21930,10 +21924,10 @@
         <v>1722</v>
       </c>
       <c r="M430" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N430" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.35">
@@ -21962,10 +21956,10 @@
         <v>1797</v>
       </c>
       <c r="M431" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="N431" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.35">
@@ -21994,10 +21988,10 @@
         <v>1798</v>
       </c>
       <c r="M432" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N432" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.35">
@@ -22026,10 +22020,10 @@
         <v>1799</v>
       </c>
       <c r="M433" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N433" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.35">
@@ -22058,10 +22052,10 @@
         <v>1800</v>
       </c>
       <c r="M434" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="N434" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.35">
@@ -22090,10 +22084,10 @@
         <v>1801</v>
       </c>
       <c r="M435" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="N435" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.35">
@@ -22122,10 +22116,10 @@
         <v>1802</v>
       </c>
       <c r="M436" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="N436" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.35">
@@ -22154,10 +22148,10 @@
         <v>1803</v>
       </c>
       <c r="M437" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="N437" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.35">
@@ -22186,10 +22180,10 @@
         <v>1804</v>
       </c>
       <c r="M438" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="N438" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.35">
@@ -22218,10 +22212,10 @@
         <v>1805</v>
       </c>
       <c r="M439" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="N439" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.35">
@@ -22250,10 +22244,10 @@
         <v>1806</v>
       </c>
       <c r="M440" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N440" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.35">
@@ -22282,10 +22276,10 @@
         <v>1807</v>
       </c>
       <c r="M441" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="N441" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.35">
@@ -22314,10 +22308,10 @@
         <v>1808</v>
       </c>
       <c r="M442" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="N442" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.35">
@@ -22346,7 +22340,7 @@
         <v>714</v>
       </c>
       <c r="N443" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.35">
@@ -22372,10 +22366,10 @@
         <v>1858</v>
       </c>
       <c r="M444" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N444" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="445" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -22401,10 +22395,10 @@
         <v>0.54100000000000004</v>
       </c>
       <c r="M445" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N445" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.35">
@@ -22430,10 +22424,10 @@
         <v>1868</v>
       </c>
       <c r="M446" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N446" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.35">
@@ -22459,10 +22453,10 @@
         <v>1869</v>
       </c>
       <c r="M447" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N447" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.35">
@@ -22494,7 +22488,7 @@
         <v>714</v>
       </c>
       <c r="N448" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.35">
@@ -22523,10 +22517,10 @@
         <v>43.1</v>
       </c>
       <c r="M449" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="N449" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.35">
@@ -22555,10 +22549,10 @@
         <v>1894</v>
       </c>
       <c r="M450" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N450" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.35">
@@ -22587,10 +22581,10 @@
         <v>1895</v>
       </c>
       <c r="M451" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N451" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.35">
@@ -22619,10 +22613,10 @@
         <v>1896</v>
       </c>
       <c r="M452" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N452" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="453" spans="1:14" x14ac:dyDescent="0.35">
@@ -22651,10 +22645,10 @@
         <v>7.1</v>
       </c>
       <c r="M453" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N453" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="454" spans="1:14" x14ac:dyDescent="0.35">
@@ -22683,10 +22677,10 @@
         <v>1897</v>
       </c>
       <c r="M454" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N454" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="455" spans="1:14" x14ac:dyDescent="0.35">
@@ -22715,10 +22709,10 @@
         <v>1898</v>
       </c>
       <c r="M455" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N455" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="456" spans="1:14" x14ac:dyDescent="0.35">
@@ -22747,10 +22741,10 @@
         <v>1899</v>
       </c>
       <c r="M456" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N456" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="457" spans="1:14" x14ac:dyDescent="0.35">
@@ -22779,10 +22773,10 @@
         <v>1900</v>
       </c>
       <c r="M457" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N457" t="s">
         <v>2222</v>
-      </c>
-      <c r="N457" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="458" spans="1:14" x14ac:dyDescent="0.35">
@@ -22811,10 +22805,10 @@
         <v>1901</v>
       </c>
       <c r="M458" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N458" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="459" spans="1:14" x14ac:dyDescent="0.35">
@@ -22843,10 +22837,10 @@
         <v>1902</v>
       </c>
       <c r="M459" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N459" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="460" spans="1:14" x14ac:dyDescent="0.35">
@@ -22875,10 +22869,10 @@
         <v>80.099999999999994</v>
       </c>
       <c r="M460" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="N460" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="461" spans="1:14" x14ac:dyDescent="0.35">
@@ -22907,10 +22901,10 @@
         <v>5.3</v>
       </c>
       <c r="M461" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="N461" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="462" spans="1:14" x14ac:dyDescent="0.35">
@@ -22939,10 +22933,10 @@
         <v>3</v>
       </c>
       <c r="M462" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="N462" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="463" spans="1:14" x14ac:dyDescent="0.35">
@@ -22971,10 +22965,10 @@
         <v>2.5</v>
       </c>
       <c r="M463" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="N463" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="464" spans="1:14" x14ac:dyDescent="0.35">
@@ -23003,10 +22997,10 @@
         <v>0.4</v>
       </c>
       <c r="M464" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="N464" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="465" spans="1:14" x14ac:dyDescent="0.35">
@@ -23035,10 +23029,10 @@
         <v>4.5</v>
       </c>
       <c r="M465" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="N465" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="466" spans="1:14" x14ac:dyDescent="0.35">
@@ -23067,10 +23061,10 @@
         <v>1.5</v>
       </c>
       <c r="M466" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="N466" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="467" spans="1:14" x14ac:dyDescent="0.35">
@@ -23099,10 +23093,10 @@
         <v>0.7</v>
       </c>
       <c r="M467" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="N467" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="468" spans="1:14" x14ac:dyDescent="0.35">
@@ -23131,10 +23125,10 @@
         <v>0.2</v>
       </c>
       <c r="M468" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="N468" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="469" spans="1:14" x14ac:dyDescent="0.35">
@@ -23163,10 +23157,10 @@
         <v>1.6</v>
       </c>
       <c r="M469" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="N469" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="470" spans="1:14" x14ac:dyDescent="0.35">
@@ -23204,7 +23198,7 @@
         <v>714</v>
       </c>
       <c r="N470" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="471" spans="1:14" x14ac:dyDescent="0.35">
@@ -23224,10 +23218,10 @@
         <v>1987</v>
       </c>
       <c r="M471" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="N471" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="472" spans="1:14" x14ac:dyDescent="0.35">
@@ -23247,10 +23241,10 @@
         <v>1988</v>
       </c>
       <c r="M472" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N472" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="473" spans="1:14" x14ac:dyDescent="0.35">
@@ -23270,10 +23264,10 @@
         <v>1989</v>
       </c>
       <c r="M473" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="N473" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="474" spans="1:14" x14ac:dyDescent="0.35">
@@ -23293,10 +23287,10 @@
         <v>1990</v>
       </c>
       <c r="M474" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="N474" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="475" spans="1:14" x14ac:dyDescent="0.35">
@@ -23316,10 +23310,10 @@
         <v>1991</v>
       </c>
       <c r="M475" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="N475" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="476" spans="1:14" x14ac:dyDescent="0.35">
@@ -23339,10 +23333,10 @@
         <v>1992</v>
       </c>
       <c r="M476" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="N476" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.35">
@@ -23377,10 +23371,10 @@
         <v>1993</v>
       </c>
       <c r="M477" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="N477" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="478" spans="1:14" x14ac:dyDescent="0.35">
@@ -23415,10 +23409,10 @@
         <v>1994</v>
       </c>
       <c r="M478" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N478" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="479" spans="1:14" x14ac:dyDescent="0.35">
@@ -23453,10 +23447,10 @@
         <v>1995</v>
       </c>
       <c r="M479" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N479" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="480" spans="1:14" x14ac:dyDescent="0.35">
@@ -23491,10 +23485,10 @@
         <v>1996</v>
       </c>
       <c r="M480" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N480" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="481" spans="1:14" x14ac:dyDescent="0.35">
@@ -23529,10 +23523,10 @@
         <v>1997</v>
       </c>
       <c r="M481" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N481" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="482" spans="1:14" x14ac:dyDescent="0.35">
@@ -23546,7 +23540,7 @@
         <v>1949</v>
       </c>
       <c r="D482" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="E482" t="s">
         <v>2076</v>
@@ -23567,10 +23561,10 @@
         <v>1998</v>
       </c>
       <c r="M482" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N482" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="483" spans="1:14" x14ac:dyDescent="0.35">
@@ -23605,10 +23599,10 @@
         <v>1999</v>
       </c>
       <c r="M483" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N483" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="484" spans="1:14" x14ac:dyDescent="0.35">
@@ -23643,10 +23637,10 @@
         <v>2000</v>
       </c>
       <c r="M484" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="N484" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="485" spans="1:14" x14ac:dyDescent="0.35">
@@ -23681,10 +23675,10 @@
         <v>2001</v>
       </c>
       <c r="M485" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="N485" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="486" spans="1:14" x14ac:dyDescent="0.35">
@@ -23719,10 +23713,10 @@
         <v>2002</v>
       </c>
       <c r="M486" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N486" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.35">
@@ -23757,10 +23751,10 @@
         <v>2003</v>
       </c>
       <c r="M487" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="N487" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="488" spans="1:14" x14ac:dyDescent="0.35">
@@ -23795,10 +23789,10 @@
         <v>2004</v>
       </c>
       <c r="M488" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N488" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="489" spans="1:14" x14ac:dyDescent="0.35">
@@ -23833,10 +23827,10 @@
         <v>2005</v>
       </c>
       <c r="M489" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N489" t="s">
         <v>2222</v>
-      </c>
-      <c r="N489" t="s">
-        <v>2224</v>
       </c>
     </row>
     <row r="490" spans="1:14" x14ac:dyDescent="0.35">
@@ -23871,10 +23865,10 @@
         <v>2006</v>
       </c>
       <c r="M490" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="N490" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="491" spans="1:14" x14ac:dyDescent="0.35">
@@ -23909,10 +23903,10 @@
         <v>2007</v>
       </c>
       <c r="M491" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="N491" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="492" spans="1:14" x14ac:dyDescent="0.35">
@@ -23947,10 +23941,10 @@
         <v>2008</v>
       </c>
       <c r="M492" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="N492" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="493" spans="1:14" x14ac:dyDescent="0.35">
@@ -23985,10 +23979,10 @@
         <v>2009</v>
       </c>
       <c r="M493" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="N493" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="494" spans="1:14" x14ac:dyDescent="0.35">
@@ -24023,10 +24017,10 @@
         <v>2010</v>
       </c>
       <c r="M494" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="N494" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="495" spans="1:14" x14ac:dyDescent="0.35">
@@ -24055,10 +24049,10 @@
         <v>2142</v>
       </c>
       <c r="M495" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="N495" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="496" spans="1:14" x14ac:dyDescent="0.35">
@@ -24087,10 +24081,10 @@
         <v>2143</v>
       </c>
       <c r="M496" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="N496" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="497" spans="1:14" x14ac:dyDescent="0.35">
@@ -24119,10 +24113,10 @@
         <v>2144</v>
       </c>
       <c r="M497" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="N497" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="498" spans="1:14" x14ac:dyDescent="0.35">
@@ -24151,10 +24145,10 @@
         <v>2049</v>
       </c>
       <c r="M498" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="N498" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="499" spans="1:14" x14ac:dyDescent="0.35">
@@ -24183,10 +24177,10 @@
         <v>2050</v>
       </c>
       <c r="M499" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="N499" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="500" spans="1:14" x14ac:dyDescent="0.35">
@@ -24215,10 +24209,10 @@
         <v>2051</v>
       </c>
       <c r="M500" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="N500" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="501" spans="1:14" x14ac:dyDescent="0.35">
@@ -24250,7 +24244,7 @@
         <v>2011</v>
       </c>
       <c r="N501" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="502" spans="1:14" x14ac:dyDescent="0.35">
@@ -24282,7 +24276,7 @@
         <v>714</v>
       </c>
       <c r="N502" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="503" spans="1:14" x14ac:dyDescent="0.35">
@@ -24311,10 +24305,10 @@
         <v>55.201920000000001</v>
       </c>
       <c r="M503" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N503" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="504" spans="1:14" x14ac:dyDescent="0.35">
@@ -24343,10 +24337,10 @@
         <v>24.092970000000001</v>
       </c>
       <c r="M504" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N504" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="505" spans="1:14" x14ac:dyDescent="0.35">
@@ -24375,10 +24369,10 @@
         <v>59.431690000000003</v>
       </c>
       <c r="M505" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N505" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="506" spans="1:14" x14ac:dyDescent="0.35">
@@ -24407,10 +24401,10 @@
         <v>7.59</v>
       </c>
       <c r="M506" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N506" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="507" spans="1:14" x14ac:dyDescent="0.35">
@@ -24439,10 +24433,10 @@
         <v>48.3</v>
       </c>
       <c r="M507" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N507" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="508" spans="1:14" x14ac:dyDescent="0.35">
@@ -24471,10 +24465,10 @@
         <v>1.362398</v>
       </c>
       <c r="M508" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N508" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="509" spans="1:14" x14ac:dyDescent="0.35">
@@ -24506,7 +24500,7 @@
         <v>714</v>
       </c>
       <c r="N509" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="510" spans="1:14" x14ac:dyDescent="0.35">
@@ -24535,10 +24529,10 @@
         <v>56.61054</v>
       </c>
       <c r="M510" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N510" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.35">
@@ -24567,10 +24561,10 @@
         <v>22.89282</v>
       </c>
       <c r="M511" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N511" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.35">
@@ -24599,10 +24593,10 @@
         <v>55.169400000000003</v>
       </c>
       <c r="M512" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N512" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="513" spans="1:14" x14ac:dyDescent="0.35">
@@ -24631,10 +24625,10 @@
         <v>7.2</v>
       </c>
       <c r="M513" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N513" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="514" spans="1:14" x14ac:dyDescent="0.35">
@@ -24663,10 +24657,10 @@
         <v>50.9</v>
       </c>
       <c r="M514" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="N514" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="515" spans="1:14" x14ac:dyDescent="0.35">
@@ -24695,10 +24689,10 @@
         <v>1.2642230000000001</v>
       </c>
       <c r="M515" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="N515" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="516" spans="1:14" x14ac:dyDescent="0.35">
@@ -24718,7 +24712,7 @@
         <v>714</v>
       </c>
       <c r="N516" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="517" spans="1:14" x14ac:dyDescent="0.35">
@@ -24735,10 +24729,10 @@
         <v>55.9</v>
       </c>
       <c r="M517" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N517" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="518" spans="1:14" x14ac:dyDescent="0.35">
@@ -24755,10 +24749,10 @@
         <v>2156</v>
       </c>
       <c r="M518" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N518" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="519" spans="1:14" x14ac:dyDescent="0.35">
@@ -24775,10 +24769,10 @@
         <v>2157</v>
       </c>
       <c r="M519" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N519" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="520" spans="1:14" x14ac:dyDescent="0.35">
@@ -24795,10 +24789,10 @@
         <v>2158</v>
       </c>
       <c r="M520" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N520" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.35">
@@ -24815,10 +24809,10 @@
         <v>2159</v>
       </c>
       <c r="M521" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N521" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="522" spans="1:14" x14ac:dyDescent="0.35">
@@ -24835,10 +24829,10 @@
         <v>2160</v>
       </c>
       <c r="M522" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N522" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="523" spans="1:14" x14ac:dyDescent="0.35">
@@ -24855,10 +24849,10 @@
         <v>2161</v>
       </c>
       <c r="M523" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N523" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="524" spans="1:14" x14ac:dyDescent="0.35">
@@ -24875,10 +24869,10 @@
         <v>2162</v>
       </c>
       <c r="M524" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N524" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="525" spans="1:14" x14ac:dyDescent="0.35">
@@ -24895,10 +24889,10 @@
         <v>2163</v>
       </c>
       <c r="M525" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N525" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="526" spans="1:14" x14ac:dyDescent="0.35">
@@ -24915,10 +24909,10 @@
         <v>61.5</v>
       </c>
       <c r="M526" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="N526" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="527" spans="1:14" x14ac:dyDescent="0.35">
@@ -24938,7 +24932,7 @@
         <v>714</v>
       </c>
       <c r="N527" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="528" spans="1:14" x14ac:dyDescent="0.35">
@@ -24955,10 +24949,10 @@
         <v>56.3</v>
       </c>
       <c r="M528" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N528" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="529" spans="1:14" x14ac:dyDescent="0.35">
@@ -24975,10 +24969,10 @@
         <v>2164</v>
       </c>
       <c r="M529" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N529" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="530" spans="1:14" x14ac:dyDescent="0.35">
@@ -24995,10 +24989,10 @@
         <v>2165</v>
       </c>
       <c r="M530" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N530" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="531" spans="1:14" x14ac:dyDescent="0.35">
@@ -25015,10 +25009,10 @@
         <v>2166</v>
       </c>
       <c r="M531" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N531" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="532" spans="1:14" x14ac:dyDescent="0.35">
@@ -25035,10 +25029,10 @@
         <v>2167</v>
       </c>
       <c r="M532" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N532" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="533" spans="1:14" x14ac:dyDescent="0.35">
@@ -25055,10 +25049,10 @@
         <v>2168</v>
       </c>
       <c r="M533" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N533" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="534" spans="1:14" x14ac:dyDescent="0.35">
@@ -25075,10 +25069,10 @@
         <v>2169</v>
       </c>
       <c r="M534" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N534" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="535" spans="1:14" x14ac:dyDescent="0.35">
@@ -25095,10 +25089,10 @@
         <v>2170</v>
       </c>
       <c r="M535" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N535" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="536" spans="1:14" x14ac:dyDescent="0.35">
@@ -25115,10 +25109,10 @@
         <v>2171</v>
       </c>
       <c r="M536" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N536" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="537" spans="1:14" x14ac:dyDescent="0.35">
@@ -25135,10 +25129,10 @@
         <v>19</v>
       </c>
       <c r="M537" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="N537" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="538" spans="1:14" x14ac:dyDescent="0.35">
@@ -25158,7 +25152,7 @@
         <v>714</v>
       </c>
       <c r="N538" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="539" spans="1:14" x14ac:dyDescent="0.35">
@@ -25175,10 +25169,10 @@
         <v>60.1</v>
       </c>
       <c r="M539" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="N539" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="540" spans="1:14" x14ac:dyDescent="0.35">
@@ -25195,10 +25189,10 @@
         <v>2174</v>
       </c>
       <c r="M540" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="N540" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="541" spans="1:14" x14ac:dyDescent="0.35">
@@ -25215,10 +25209,10 @@
         <v>2175</v>
       </c>
       <c r="M541" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="N541" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="542" spans="1:14" x14ac:dyDescent="0.35">
@@ -25235,10 +25229,10 @@
         <v>2176</v>
       </c>
       <c r="M542" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="N542" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="543" spans="1:14" x14ac:dyDescent="0.35">
@@ -25255,10 +25249,10 @@
         <v>2177</v>
       </c>
       <c r="M543" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="N543" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="544" spans="1:14" x14ac:dyDescent="0.35">
@@ -25275,10 +25269,10 @@
         <v>2178</v>
       </c>
       <c r="M544" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="N544" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="545" spans="1:14" x14ac:dyDescent="0.35">
@@ -25295,10 +25289,10 @@
         <v>2179</v>
       </c>
       <c r="M545" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="N545" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="546" spans="1:14" x14ac:dyDescent="0.35">
@@ -25315,10 +25309,10 @@
         <v>2180</v>
       </c>
       <c r="M546" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="N546" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="547" spans="1:14" x14ac:dyDescent="0.35">
@@ -25335,10 +25329,10 @@
         <v>2181</v>
       </c>
       <c r="M547" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="N547" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="548" spans="1:14" x14ac:dyDescent="0.35">
@@ -25355,10 +25349,10 @@
         <v>59.6</v>
       </c>
       <c r="M548" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="N548" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
     </row>
   </sheetData>
